--- a/transcript_janicki.xlsx
+++ b/transcript_janicki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -462,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -478,6 +486,10 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -493,6 +505,10 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -824,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
